--- a/data/中证1000基金-净值数据.xlsx
+++ b/data/中证1000基金-净值数据.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3590\Desktop\自动化项目工程文件\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB28D5F-04C7-4AE7-8A72-DA134CCF8518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView minimized="1" xWindow="828" yWindow="7332" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet2"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -244,13 +250,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -259,6 +264,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,35 +300,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -327,10 +333,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -368,71 +374,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -460,7 +466,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -483,11 +489,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -496,13 +502,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -512,7 +518,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -521,7 +527,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -530,7 +536,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -538,10 +544,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -606,748 +612,707 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="25.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.983</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="3">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.975</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="3">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>0.986</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.932</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="3">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>0.917</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="3">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>0.891</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="3">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4">
-        <v>0.943</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="3">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4">
-        <v>0.956</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="3">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4">
-        <v>0.915</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="3">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4">
-        <v>0.989</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="3">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4">
-        <v>0.986</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4">
-        <v>0.993</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
+      <c r="B19" s="3">
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4">
-        <v>0.975</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
+      <c r="B20" s="3">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>0.995</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>0.996</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4">
-        <v>0.976</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="4">
-        <v>0.929</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="3">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="4">
-        <v>0.947</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
+      <c r="B25" s="3">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="4">
-        <v>0.981</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
+      <c r="B26" s="3">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="4">
-        <v>0.983</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
+      <c r="B27" s="3">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>1.012</v>
       </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="4">
-        <v>1.047</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="3">
+        <v>1.0469999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>1.06</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>1.046</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="4">
-        <v>1.064</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="1" t="s">
+      <c r="B32" s="3">
+        <v>1.0640000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="4">
-        <v>1.067</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="1" t="s">
+      <c r="B33" s="3">
+        <v>1.0669999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>1.044</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="1" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="4">
-        <v>1.029</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="1" t="s">
+      <c r="B35" s="3">
+        <v>1.0289999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="4">
-        <v>1.049</v>
-      </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="1" t="s">
+      <c r="B36" s="3">
+        <v>1.0489999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="4">
-        <v>1.043</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="1" t="s">
+      <c r="B37" s="3">
+        <v>1.0429999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>1.05</v>
       </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="1" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>1.05</v>
       </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="1" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>1.012</v>
       </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="1" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="4">
-        <v>1.019</v>
-      </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="1" t="s">
+      <c r="B41" s="3">
+        <v>1.0189999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="4">
-        <v>1.015</v>
-      </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="1" t="s">
+      <c r="B42" s="3">
+        <v>1.0149999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="4">
-        <v>1.007</v>
-      </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="1" t="s">
+      <c r="B43" s="3">
+        <v>1.0069999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="4">
-        <v>1.027</v>
-      </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="1" t="s">
+      <c r="B44" s="3">
+        <v>1.0269999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="4">
-        <v>1.027</v>
-      </c>
-      <c r="C45" s="3">
+      <c r="B45" s="3">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="C45" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>1.038</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>1.0123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>1.016</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>0.997</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>1.038</v>
       </c>
-      <c r="C48" s="4">
-        <v>1.0212</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="1" t="s">
+      <c r="C48" s="3">
+        <v>1.0212000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>1.02</v>
       </c>
-      <c r="C49" s="4">
-        <v>0.9996</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="1" t="s">
+      <c r="C49" s="3">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="4">
-        <v>1.041</v>
-      </c>
-      <c r="C50" s="4">
-        <v>1.0187</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="1" t="s">
+      <c r="B50" s="3">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1.0186999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="4">
-        <v>1.039</v>
-      </c>
-      <c r="C51" s="4">
+      <c r="B51" s="3">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="C51" s="3">
         <v>1.014</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>1.048</v>
       </c>
-      <c r="C52" s="4">
-        <v>1.0256</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="1" t="s">
+      <c r="C52" s="3">
+        <v>1.0256000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="4">
-        <v>1.035</v>
-      </c>
-      <c r="C53" s="4">
-        <v>1.0093</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="1" t="s">
+      <c r="B53" s="3">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1.0093000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>1.054</v>
       </c>
-      <c r="C54" s="4">
-        <v>1.0216</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="1" t="s">
+      <c r="C54" s="3">
+        <v>1.0216000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>1.056</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>1.0303</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>1.026</v>
       </c>
-      <c r="C56" s="4">
-        <v>0.9997</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="1" t="s">
+      <c r="C56" s="3">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="4">
-        <v>1.021</v>
-      </c>
-      <c r="C57" s="4">
-        <v>0.984</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="1" t="s">
+      <c r="B57" s="3">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="4">
-        <v>0.991</v>
-      </c>
-      <c r="C58" s="4">
+      <c r="B58" s="3">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="C58" s="3">
         <v>0.9516</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>1.03</v>
       </c>
-      <c r="C59" s="4">
-        <v>0.9977</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="1" t="s">
+      <c r="C59" s="3">
+        <v>0.99770000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="4">
-        <v>1.029</v>
-      </c>
-      <c r="C60" s="4">
-        <v>1.0014</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="1" t="s">
+      <c r="B60" s="3">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1.0014000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="4">
-        <v>1.029</v>
-      </c>
-      <c r="C61" s="4">
-        <v>0.9944</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="1" t="s">
+      <c r="B61" s="3">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.99439999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="4">
-        <v>1.035</v>
-      </c>
-      <c r="C62" s="4">
-        <v>0.9964</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="1" t="s">
+      <c r="B62" s="3">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="4">
-        <v>1.037</v>
-      </c>
-      <c r="C63" s="4">
+      <c r="B63" s="3">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="C63" s="3">
         <v>1.0044</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>1.026</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>0.998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="4">
-        <v>0.987</v>
-      </c>
-      <c r="C65" s="4">
+      <c r="B65" s="3">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="C65" s="3">
         <v>0.9556</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>1.012</v>
       </c>
-      <c r="C66" s="4">
-        <v>0.984</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="1" t="s">
+      <c r="C66" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>1.026</v>
       </c>
-      <c r="C67" s="4">
-        <v>0.9999</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="1" t="s">
+      <c r="C67" s="3">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="4">
-        <v>1.043</v>
-      </c>
-      <c r="C68" s="4">
+      <c r="B68" s="3">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="C68" s="3">
         <v>1.0185</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="4">
-        <v>1.065</v>
-      </c>
-      <c r="C69" s="4">
+      <c r="B69" s="3">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="C69" s="3">
         <v>1.0447</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="4">
-        <v>1.068</v>
-      </c>
-      <c r="C70" s="4">
-        <v>1.0417</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="1" t="s">
+      <c r="B70" s="3">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1.0417000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="4">
-        <v>1.072</v>
-      </c>
-      <c r="C71" s="4">
-        <v>1.047</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="1" t="s">
+      <c r="B71" s="3">
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1.0469999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>1.05</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>1.0225</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="4">
-        <v>1.065</v>
-      </c>
-      <c r="C73" s="4">
-        <v>1.0296</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="1" t="s">
+      <c r="B73" s="3">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1.0296000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="3">
         <v>1.036</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <v>1.0001</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>